--- a/research.xlsx
+++ b/research.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasuaska\Dev\katyas_diplom\diploma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasuaska\Dev\haplotypes_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0CF031-3F11-4BDA-994A-82C496166CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505331B4-E914-4458-9F55-01441B5F3381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CEF15661-D9DB-417D-8B4F-4886A914BD2A}"/>
+    <workbookView xWindow="4428" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{CEF15661-D9DB-417D-8B4F-4886A914BD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>people</t>
   </si>
   <si>
-    <t>people_amounth</t>
+    <t>people_amount</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855D84B9-6D48-4E94-88C8-8B60605AC16F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
